--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175581.445554987</v>
+        <v>1142484.142012081</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>1848583.332998798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075101</v>
+        <v>4215871.670841859</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9987288.559206421</v>
+        <v>10113326.75045826</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>283.8737319044593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.51885255793302</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>86.57157965651488</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>197.9240804051652</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>278.9270494795691</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>318.8441701540454</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>4.553842565068913</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>289.3523827120545</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>111.8822753849638</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>354.7817821332868</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>43.53636164073718</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>12.46748952006747</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>412.3345997681973</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>309.0773614149405</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>141.3836306779003</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>210.1028265769112</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1082018880815</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.12102165480194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7554234621014</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664349</v>
+        <v>96.89780243894165</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958679</v>
+        <v>34.71884533515475</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183532</v>
+        <v>1.556718218862073</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>142.1850271380592</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>193.7635966276314</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8369022322176</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.813850247729</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.2568614883001</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5650375952924</v>
+        <v>286.2464072976826</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.834621855105723</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>120.1895194744949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>295.2459761373928</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.3345997681973</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752157</v>
+        <v>309.0773614149405</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>96.04675908158666</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>141.3836306779004</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>210.1028265769112</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1082018880815</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7554234621014</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664349</v>
+        <v>96.89780243894167</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958681</v>
+        <v>34.71884533515479</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183535</v>
+        <v>1.55671821886213</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>142.1850271380592</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>193.7635966276314</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8369022322176</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.813850247729</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>96.91930908477771</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.13107494872285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>16.706725549292</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>59.04395605284535</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>60.54139430664144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>148.4177649991552</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>174.7611531036558</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185879</v>
+        <v>52.59056615842513</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.84391799868179</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>187.8326399421082</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.646004125381547</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>181.7328967428933</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.6823614795157</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>276.1491823570823</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C2" t="n">
-        <v>494.1501011631125</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.231058131421</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2326.16817078785</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1973.399515517736</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1683.321707331112</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1683.321707331112</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1297.533454732868</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>886.5475499432605</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>468.5837418414474</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>141.3890218774502</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.6874762441716</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>335.6874762441716</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>335.6874762441716</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>335.6874762441716</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>335.6874762441716</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6874762441716</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2143.878095525466</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y8" t="n">
-        <v>722.2873163082934</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931989</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>286.5323736931989</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.1126181035247</v>
+        <v>764.1819239747579</v>
       </c>
       <c r="C11" t="n">
-        <v>494.150101163113</v>
+        <v>764.1819239747579</v>
       </c>
       <c r="D11" t="n">
-        <v>494.150101163113</v>
+        <v>764.1819239747579</v>
       </c>
       <c r="E11" t="n">
-        <v>494.150101163113</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>494.150101163113</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V11" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X11" t="n">
-        <v>1639.851790143458</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y11" t="n">
-        <v>1249.712458167646</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5132,10 +5132,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C14" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E14" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G14" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5290,40 +5290,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2653.172968148791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2653.172968148791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2322.110080805221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.341425535107</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>1595.875667274027</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y14" t="n">
-        <v>1595.875667274027</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1975.039366445947</v>
+        <v>2340.893422688623</v>
       </c>
       <c r="C17" t="n">
-        <v>1606.076849505535</v>
+        <v>1971.930905748211</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1613.665207141461</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>1227.876954543217</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>816.8910497536092</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541111</v>
+        <v>400.3914540281575</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403563</v>
+        <v>325.7601138906747</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604008</v>
+        <v>802.5577892093651</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1446.344094318911</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389909</v>
+        <v>2179.286948567236</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2909.457586919648</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3553.749377683568</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556124</v>
+        <v>4065.963131975639</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331024</v>
+        <v>4373.392570021671</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331024</v>
+        <v>4409.604953178554</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827852</v>
+        <v>4266.793205019058</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095563</v>
+        <v>4054.568127668643</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.883153840714</v>
+        <v>3800.923479296844</v>
       </c>
       <c r="V17" t="n">
-        <v>2743.820266497143</v>
+        <v>3469.860591953273</v>
       </c>
       <c r="W17" t="n">
-        <v>2391.051611227029</v>
+        <v>3117.091936683159</v>
       </c>
       <c r="X17" t="n">
-        <v>2017.585852965949</v>
+        <v>2743.626178422079</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.039366445947</v>
+        <v>2353.486846446267</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4243502130026</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9713209318757</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0369112706244</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7994562651688</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2648982920538</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.1382079262947</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>123.2616398061516</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>111.162476520754</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468723</v>
+        <v>228.5773349878958</v>
       </c>
       <c r="L18" t="n">
-        <v>397.4884646625654</v>
+        <v>799.9105850960593</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.033814129669</v>
+        <v>1518.608761564132</v>
       </c>
       <c r="N18" t="n">
-        <v>1711.239506382451</v>
+        <v>1797.486802997486</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.675515135173</v>
+        <v>2399.974879319096</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2567.563897221471</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2628.101078434116</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2484.479838900723</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.759034226347</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.640951163502</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.488842931759</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.251486203557</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.399985998024</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.639687233071</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.95549972113506</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222299</v>
+        <v>220.0468382225164</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230478</v>
+        <v>443.3250529390615</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422853</v>
+        <v>689.1297475364073</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783891</v>
+        <v>934.5243723185877</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669875</v>
+        <v>1145.169731061407</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1301.89254334722</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835738</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1326.964214835738</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1124.121941858234</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>899.620061567022</v>
       </c>
       <c r="U19" t="n">
-        <v>846.0830042674853</v>
+        <v>610.4822764178477</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>610.4822764178477</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>321.0651063808871</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662049</v>
+        <v>93.07555548286979</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357108</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1240.846680926016</v>
+        <v>1966.887006382143</v>
       </c>
       <c r="C20" t="n">
-        <v>871.8841639856039</v>
+        <v>1597.924489441732</v>
       </c>
       <c r="D20" t="n">
-        <v>513.6184653788534</v>
+        <v>1597.924489441732</v>
       </c>
       <c r="E20" t="n">
-        <v>392.2149103541111</v>
+        <v>1212.136236843487</v>
       </c>
       <c r="F20" t="n">
-        <v>392.2149103541111</v>
+        <v>913.9079781188483</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>497.4083823933965</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662049</v>
+        <v>185.2090274288101</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>325.7601138906743</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>802.5577892093643</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1446.344094318909</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2179.286948567235</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2909.457586919646</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3553.749377683566</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556124</v>
+        <v>4065.963131975637</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331024</v>
+        <v>4373.39257002167</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331024</v>
+        <v>4409.604953178552</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827852</v>
+        <v>4266.793205019057</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095563</v>
+        <v>4054.568127668641</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.883153840714</v>
+        <v>3800.923479296842</v>
       </c>
       <c r="V20" t="n">
-        <v>2743.820266497143</v>
+        <v>3469.860591953271</v>
       </c>
       <c r="W20" t="n">
-        <v>2391.051611227029</v>
+        <v>3117.091936683157</v>
       </c>
       <c r="X20" t="n">
-        <v>2017.585852965949</v>
+        <v>2743.626178422077</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.446520990137</v>
+        <v>2353.486846446265</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4243502130026</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9713209318757</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0369112706244</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7994562651688</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2648982920538</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.1382079262947</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>123.2616398061516</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662049</v>
+        <v>165.3578997691322</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899768</v>
+        <v>282.7727582362739</v>
       </c>
       <c r="L21" t="n">
-        <v>278.8292128056699</v>
+        <v>486.9740664940126</v>
       </c>
       <c r="M21" t="n">
-        <v>919.3745622727736</v>
+        <v>1205.672242962085</v>
       </c>
       <c r="N21" t="n">
-        <v>1592.580254525555</v>
+        <v>1959.099234995557</v>
       </c>
       <c r="O21" t="n">
-        <v>2142.016263278277</v>
+        <v>2191.998364460605</v>
       </c>
       <c r="P21" t="n">
-        <v>2565.984031759112</v>
+        <v>2359.58738236298</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2629.673521079431</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2628.101078434116</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2484.479838900723</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.759034226347</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.640951163502</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.488842931759</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.251486203557</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.399985998024</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.639687233071</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.9048887090136</v>
+        <v>555.1580149862068</v>
       </c>
       <c r="C22" t="n">
-        <v>221.9048887090136</v>
+        <v>386.2218320582999</v>
       </c>
       <c r="D22" t="n">
-        <v>221.9048887090136</v>
+        <v>236.1051926459642</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.19209906357104</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662049</v>
+        <v>88.95549972113496</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222299</v>
+        <v>220.0468382225162</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230477</v>
+        <v>443.3250529390612</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422851</v>
+        <v>689.1297475364069</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783889</v>
+        <v>934.5243723185871</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669873</v>
+        <v>1145.169731061406</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165602</v>
+        <v>1301.892543347219</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585962</v>
+        <v>1326.964214835737</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585962</v>
+        <v>1326.964214835737</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585962</v>
+        <v>1124.121941858233</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585962</v>
+        <v>1124.121941858233</v>
       </c>
       <c r="U22" t="n">
-        <v>1073.926476585962</v>
+        <v>1124.121941858233</v>
       </c>
       <c r="V22" t="n">
-        <v>819.2419883800752</v>
+        <v>1124.121941858233</v>
       </c>
       <c r="W22" t="n">
-        <v>529.8248183431147</v>
+        <v>834.7047718212725</v>
       </c>
       <c r="X22" t="n">
-        <v>301.8352674450973</v>
+        <v>736.8064798164465</v>
       </c>
       <c r="Y22" t="n">
-        <v>221.9048887090136</v>
+        <v>736.8064798164465</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,22 +6056,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L24" t="n">
         <v>563.7235867775518</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4633.68764703131</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.003158825423</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788463</v>
+        <v>1116.281198561021</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890445</v>
+        <v>1116.281198561021</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746915</v>
+        <v>895.4886194174906</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6311,13 +6311,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899658</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.386136971751</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873428</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729898</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>359.1696912903951</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>359.1696912903951</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3907.403430293707</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>3907.403430293707</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>3907.403430293707</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3759.490336711313</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3759.490336711313</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>4317.041446021964</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X34" t="n">
-        <v>4089.051895123946</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y34" t="n">
-        <v>4089.051895123946</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028583</v>
@@ -7183,10 +7183,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2463.528495470036</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028583</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1309.18633122244</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.400916011945</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>796.2722772255036</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
@@ -7429,22 +7429,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.8029164824583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>247.8029164824583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>247.8029164824583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>99.88982290006518</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>99.88982290006518</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259884</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8029164824583</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7630,22 +7630,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
@@ -7657,16 +7657,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1394.186612497786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1105.057973711344</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V46" t="n">
-        <v>850.3734855054568</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>560.9563154684962</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>560.9563154684962</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.9563154684962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>373.3221685419812</v>
       </c>
       <c r="P18" t="n">
-        <v>56.82651903506269</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928767</v>
+        <v>54.7428517660388</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.29886828945624</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.47535963978227</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9959,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772039</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.64859338270637</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>70.80930971622365</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22567,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,7 +22603,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>211.7053149503563</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22770,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>135.6608973090997</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.35973658834637</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>171.8070202733038</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>80.49006577330462</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.99572328478808</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>8.908088316089504</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9691557715221</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>92.57798736020732</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>301.9018946358311</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>28.31325977179785</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>27.95205953019382</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>172.9119587169206</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>370.2663521434131</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>96.04675908158659</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>344.1169170012516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6595749469737</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>150.3897769216911</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>115.4115131709637</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677915</v>
+        <v>117.4286075662164</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>60.69561706280456</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>213.7500314969891</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>261.7408505977669</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>111.6300696043186</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6595749469737</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>150.3897769216911</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>115.4115131709638</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176923</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677915</v>
+        <v>117.4286075662164</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>222.2568614883001</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>286.2464072976826</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>128.7903463042595</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.4535784033719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.816272787299</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>108.2028650457825</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368768</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>30.75201340998657</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.07580346422236</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>43.82350024843896</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871784</v>
+        <v>173.119089230612</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.402903099946</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>10.08817004149503</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>163.847564337996</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>70.40474658093467</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>117.8651995788735</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>851553.6159369523</v>
+        <v>929729.3612544985</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>851553.6159369524</v>
+        <v>929729.361254498</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165456</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779895</v>
+        <v>388837.7912124798</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779894</v>
+        <v>388837.7912124797</v>
       </c>
       <c r="I2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="J2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="M2" t="n">
         <v>410580.5127245943</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>410580.5127245942</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410580.5127245942</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245943</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004546</v>
+        <v>397686.345456693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990996</v>
+        <v>99295.86104592148</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704779</v>
+        <v>103026.0539211865</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>24740.78594361633</v>
+        <v>23170.68752577161</v>
       </c>
       <c r="H4" t="n">
-        <v>24740.78594361634</v>
+        <v>23170.68752577162</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360135</v>
+        <v>83121.46425552094</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360135</v>
+        <v>83121.4642555209</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396303.5538663736</v>
+        <v>-402371.9676121928</v>
       </c>
       <c r="C6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023518</v>
       </c>
       <c r="D6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023519</v>
       </c>
       <c r="E6" t="n">
-        <v>227291.9253481708</v>
+        <v>221223.5116023519</v>
       </c>
       <c r="F6" t="n">
-        <v>227291.9253481711</v>
+        <v>221223.5116023519</v>
       </c>
       <c r="G6" t="n">
-        <v>24292.45725031724</v>
+        <v>-117150.6649762805</v>
       </c>
       <c r="H6" t="n">
-        <v>260710.1092507719</v>
+        <v>280535.6804804129</v>
       </c>
       <c r="I6" t="n">
-        <v>40886.41958990744</v>
+        <v>196148.1268833638</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.359996414</v>
+        <v>119020.7687366925</v>
       </c>
       <c r="K6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="L6" t="n">
-        <v>296418.579189007</v>
+        <v>295443.9879292854</v>
       </c>
       <c r="M6" t="n">
-        <v>296418.5791890068</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="N6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292852</v>
       </c>
       <c r="O6" t="n">
-        <v>236108.9920519591</v>
+        <v>192417.9340080988</v>
       </c>
       <c r="P6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292853</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380634</v>
+        <v>738.3242645507762</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380631</v>
+        <v>738.3242645507758</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>924.897439082756</v>
+        <v>1102.401238294638</v>
       </c>
       <c r="H4" t="n">
-        <v>924.897439082756</v>
+        <v>1102.401238294638</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209767</v>
+        <v>360.5806003336896</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160371</v>
+        <v>92.05814090332444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282003</v>
+        <v>428.113965540083</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708171</v>
+        <v>112.8124049589348</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282005</v>
+        <v>428.113965540083</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282003</v>
+        <v>428.113965540083</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198243</v>
+        <v>2.968137746937792</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>30.39744070082666</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651535</v>
+        <v>114.4291304888193</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>251.9169810991616</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779012</v>
+        <v>377.5582519270384</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971252</v>
+        <v>468.3943974998859</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074812</v>
+        <v>521.1790171569909</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359658</v>
+        <v>529.612238530478</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822507</v>
+        <v>500.0978188093652</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426691</v>
+        <v>426.8219181818384</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457569</v>
+        <v>320.5254851196287</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>186.4472827460812</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810501</v>
+        <v>67.636438908345</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916531</v>
+        <v>12.99302298722019</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2374510197550233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.588093701109217</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>15.33764179755481</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>54.67778751626032</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>150.0400281385686</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>256.4423061128861</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512814</v>
+        <v>344.818327514964</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>402.386724180173</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900643</v>
+        <v>413.0367034301555</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947068</v>
+        <v>377.8478903687354</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>303.2562436793556</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>202.7187678819414</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080781</v>
+        <v>98.60111593378106</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>29.49814396577863</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308302</v>
+        <v>6.401132067190218</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1044798487571854</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.331404411485006</v>
       </c>
       <c r="H19" t="n">
-        <v>9.51507583820699</v>
+        <v>11.83739558574852</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784121</v>
+        <v>40.03896175629456</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490358</v>
+        <v>94.13029189198993</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790237</v>
+        <v>154.6849852616216</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>197.9435249584163</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>208.7036933385087</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441086</v>
+        <v>203.7411859866102</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>188.1879617251717</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>161.0273117308774</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104756</v>
+        <v>111.4869639471672</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937804</v>
+        <v>59.86478381095308</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>23.20274778924324</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522781</v>
+        <v>5.688727939981388</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.07262205880827315</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198242</v>
+        <v>2.96813774693779</v>
       </c>
       <c r="H20" t="n">
-        <v>24.4339180405515</v>
+        <v>30.39744070082665</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651532</v>
+        <v>114.4291304888193</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937395</v>
+        <v>251.9169810991615</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779011</v>
+        <v>377.5582519270382</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712519</v>
+        <v>468.3943974998857</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074811</v>
+        <v>521.1790171569905</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359657</v>
+        <v>529.6122385304776</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822506</v>
+        <v>500.0978188093649</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426689</v>
+        <v>426.8219181818382</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457568</v>
+        <v>320.5254851196285</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411492</v>
+        <v>186.4472827460811</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810499</v>
+        <v>67.63643890834496</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916531</v>
+        <v>12.99302298722018</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358593</v>
+        <v>0.2374510197550231</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840362</v>
+        <v>1.588093701109216</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985297</v>
+        <v>15.3376417975548</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182826</v>
+        <v>54.67778751626029</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847379</v>
+        <v>150.0400281385685</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070422</v>
+        <v>256.4423061128859</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512813</v>
+        <v>344.8183275149638</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842444</v>
+        <v>402.3867241801727</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900642</v>
+        <v>413.0367034301552</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947067</v>
+        <v>377.8478903687352</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671566</v>
+        <v>303.2562436793555</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607452</v>
+        <v>202.7187678819413</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080778</v>
+        <v>98.601115933781</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784619</v>
+        <v>29.49814396577862</v>
       </c>
       <c r="T21" t="n">
-        <v>5.1453258133083</v>
+        <v>6.401132067190214</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897123</v>
+        <v>0.1044798487571853</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.07020280388831</v>
+        <v>1.331404411485005</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206986</v>
+        <v>11.83739558574851</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478412</v>
+        <v>40.03896175629453</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490355</v>
+        <v>94.13029189198987</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790237</v>
+        <v>154.6849852616215</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889948</v>
+        <v>197.9435249584162</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676921</v>
+        <v>208.7036933385086</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441086</v>
+        <v>203.7411859866101</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714132</v>
+        <v>188.1879617251716</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720916</v>
+        <v>161.0273117308773</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104753</v>
+        <v>111.4869639471671</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937802</v>
+        <v>59.86478381095304</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685355</v>
+        <v>23.20274778924322</v>
       </c>
       <c r="T22" t="n">
-        <v>4.57268470752278</v>
+        <v>5.688727939981385</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390791</v>
+        <v>0.0726220588082731</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.545352539127</v>
+        <v>239.9676917445491</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040854</v>
+        <v>481.6138134532226</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517152</v>
+        <v>650.2891970803491</v>
       </c>
       <c r="M17" t="n">
-        <v>638.098798973041</v>
+        <v>740.3463174225507</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>737.5460993458712</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233093</v>
+        <v>650.7997886504238</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588822</v>
+        <v>517.3876305980516</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312121</v>
+        <v>310.5347859050839</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>36.57816480493153</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>23.20240147190191</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268327</v>
+        <v>118.6008671385271</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714072</v>
+        <v>577.104293038549</v>
       </c>
       <c r="M18" t="n">
-        <v>647.015504512226</v>
+        <v>725.9577540081546</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>281.6949913468221</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>608.5738144662722</v>
       </c>
       <c r="P18" t="n">
-        <v>166.6140215878891</v>
+        <v>169.2818362650254</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105728</v>
+        <v>62.73699379591991</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.7711117753171521</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>132.4154934357387</v>
       </c>
       <c r="L19" t="n">
-        <v>186.699994849311</v>
+        <v>225.5335502187324</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>248.2875703003493</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233372</v>
+        <v>247.8733583658388</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>212.7730896392113</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369851</v>
+        <v>158.3058709957709</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353173</v>
+        <v>25.32492069547281</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.545352539127</v>
+        <v>239.9676917445489</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040853</v>
+        <v>481.6138134532223</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517151</v>
+        <v>650.2891970803489</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730409</v>
+        <v>740.3463174225503</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513589</v>
+        <v>737.5460993458709</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233092</v>
+        <v>650.7997886504236</v>
       </c>
       <c r="P20" t="n">
-        <v>433.651561958882</v>
+        <v>517.3876305980513</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.652485631212</v>
+        <v>310.5347859050837</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>36.57816480493142</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>77.94525323794062</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268319</v>
+        <v>118.600867138527</v>
       </c>
       <c r="L21" t="n">
-        <v>138.6157555714071</v>
+        <v>206.2639477350896</v>
       </c>
       <c r="M21" t="n">
-        <v>647.015504512226</v>
+        <v>725.9577540081543</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502844</v>
+        <v>761.0373656903755</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269917</v>
+        <v>235.2516459242908</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927635</v>
+        <v>169.2818362650252</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.26547556417992</v>
+        <v>272.8142815317689</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.7711117753170953</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531408</v>
+        <v>132.4154934357387</v>
       </c>
       <c r="L22" t="n">
-        <v>186.699994849311</v>
+        <v>225.5335502187323</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295327</v>
+        <v>248.2875703003492</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233372</v>
+        <v>247.8733583658387</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854529</v>
+        <v>212.7730896392112</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369851</v>
+        <v>158.3058709957708</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353145</v>
+        <v>25.32492069547276</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>71.38553859468892</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
@@ -36679,16 +36679,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.6616261677805</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
